--- a/input_files/price_params/Sample_days_conf_paper.xlsx
+++ b/input_files/price_params/Sample_days_conf_paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/wolf5825_ox_ac_uk/Documents/DPhil/Projects/Self commitment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{5BB0D02B-0374-43F8-9D24-ADE16FA39D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37604714-55D8-42E0-8500-984B91E84185}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{5BB0D02B-0374-43F8-9D24-ADE16FA39D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50186ABE-315B-4DD0-BCF2-769CBB559BCC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{55498C9D-B649-4E3E-8AD0-071880421171}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{55498C9D-B649-4E3E-8AD0-071880421171}"/>
   </bookViews>
   <sheets>
     <sheet name="SA23Aug21" sheetId="1" r:id="rId1"/>
@@ -1753,6 +1753,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="884693759"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -5099,398 +5100,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>465828</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>189881</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA630D04-E1E1-DD76-10F4-1057CD74C1AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4714875" y="0"/>
-          <a:ext cx="7171428" cy="4952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>465828</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>182261</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391F7ED9-86AA-A111-A366-AC791697204C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4105275" y="0"/>
-          <a:ext cx="7171428" cy="4952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>465828</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>189881</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33FD76F-4F86-52A6-B3E1-AA96173B9D87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4105275" y="0"/>
-          <a:ext cx="7171428" cy="4952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>372372</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>189881</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07798AC-409E-5738-99D7-852F76E285E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4029972" y="0"/>
-          <a:ext cx="7171428" cy="4952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>465828</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>189881</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA25E34D-C1D8-42F8-484E-DE78D46F4505}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3657600" y="0"/>
-          <a:ext cx="7171428" cy="4952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>465828</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>189881</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5C80AE-D294-1711-76E8-BDA1A83122DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="0"/>
-          <a:ext cx="7171428" cy="4952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>465828</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>189881</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B699A9-FA6C-FA93-2A58-1E727453917F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4267200" y="0"/>
-          <a:ext cx="7171428" cy="4952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>143772</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>189881</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996EBB49-ABD5-AB4C-2905-DE944209EAC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4249047" y="0"/>
-          <a:ext cx="7171428" cy="4952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -5530,7 +5139,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9984,7 +9593,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9993,7 +9601,7 @@
   <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14100,7 +13708,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17400,7 +17007,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23148,7 +22754,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28896,7 +28501,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32094,7 +31698,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -38853,7 +38456,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -38861,7 +38463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F902E53E-34D3-4D86-8C34-E1ACF877F7E5}">
   <dimension ref="A1:F385"/>
   <sheetViews>
-    <sheetView topLeftCell="A348" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A385"/>
     </sheetView>
   </sheetViews>
@@ -46572,7 +46174,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -46580,8 +46181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E120D0-B8F4-4A7D-B294-553184B9756B}">
   <dimension ref="A1:T194"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47725,8 +47326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD40F00-E141-4776-B27A-A68018562776}">
   <dimension ref="A1:F385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
